--- a/问卷调查数据库/问卷调查数据库数据字典.xlsx
+++ b/问卷调查数据库/问卷调查数据库数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="244">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -865,6 +865,129 @@
   </si>
   <si>
     <t>记录该答案的用户,作为外键与user表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入信息编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importInformationID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入该用户的信息编号，作为外键与importInformation表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入信息编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importInformationID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入信息唯一标识，自动增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案唯一标识，自动增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入人信息编号，作为外键与user表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t>jurisdictionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限唯一标识，自动增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该角色所拥有的权限编号，作为外键与jurisdiction表连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,6 +1110,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,11 +1124,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1333,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J107"/>
+  <dimension ref="B3:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1353,28 +1476,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -1619,1776 +1742,2068 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="7" t="s">
+      <c r="B15" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>50</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="7" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>50</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="B29" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2">
-        <v>50</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="2">
-        <v>50</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="2">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="2">
-        <v>100</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E42" s="2">
+        <v>50</v>
+      </c>
       <c r="F42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="2">
+        <v>50</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="2"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="B45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="2">
+        <v>100</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="2" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H57" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+      <c r="I66" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B68" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B69" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="2" t="s">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B76" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B77" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B79" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B80" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="2">
-        <v>1</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B80" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E80" s="2">
-        <v>100</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="H80" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I80" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" s="2">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I81" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B85" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B87" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B88" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B89" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" s="2">
+        <v>100</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B90" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="2">
+        <v>50</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B91" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E91" s="2">
         <v>50</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" s="2">
-        <v>50</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B84" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E84" s="2">
-        <v>50</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E85" s="2">
-        <v>50</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E86" s="2">
-        <v>50</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B89" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B91" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="I91" s="9"/>
+      <c r="I91" s="2"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E92" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="E92" s="2">
+        <v>50</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="I92" s="2"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E93" s="2">
+        <v>50</v>
+      </c>
       <c r="F93" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B94" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" s="2">
+        <v>50</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B95" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E95" s="2">
+        <v>50</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B97" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B98" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B100" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B95" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B98" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B100" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="G100" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I100" s="5"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B102" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E102" s="2">
-        <v>50</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B103" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E103" s="2">
-        <v>50</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I103" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B104" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E104" s="2">
-        <v>50</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I104" s="2"/>
+      <c r="B104" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B105" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E105" s="2">
-        <v>50</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I105" s="2"/>
+      <c r="B105" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="9"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B106" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E106" s="2">
-        <v>50</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I106" s="2"/>
+      <c r="B106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B107" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B108" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B109" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B110" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B111" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E111" s="2">
+        <v>50</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B112" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" s="2">
+        <v>50</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B113" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E113" s="2">
+        <v>50</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B114" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E114" s="2">
+        <v>50</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B115" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E115" s="2">
+        <v>50</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B116" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E116" s="2">
         <v>50</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I107" s="2"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B119" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B120" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="9"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B122" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B123" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B124" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B95:I95"/>
-    <mergeCell ref="B96:I96"/>
+  <mergeCells count="26">
+    <mergeCell ref="B119:I119"/>
+    <mergeCell ref="B120:I120"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I54"/>
     <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B69:I69"/>
     <mergeCell ref="B76:I76"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B89:I89"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B104:I104"/>
+    <mergeCell ref="B105:I105"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B84:I84"/>
+    <mergeCell ref="B85:I85"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="B98:I98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问卷调查数据库/问卷调查数据库数据字典.xlsx
+++ b/问卷调查数据库/问卷调查数据库数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="276">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调查时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>截止时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,642 +444,678 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>withdrawID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diseaseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionnaireID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0表示未审核，1表示已审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷创建者的编号，作为外键与user表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷所调查的疾病类型，作为外键与caseCategory表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放信息的唯一标识，自动增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放份数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allotNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷所发放给的用户的编号，作为外键与user表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷所发放给的单位的编号，作为外键与unit表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为外键与allotInformation表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为外键与withdrawInformation表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回份数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdrawID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdrawNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前收回的用户的编号，作为外键与user表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前收回的单位的编号，作为外键与unit表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionbank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0表示单选 1表示多选 2表示填空 3表示图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目对应信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionnaire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为外键与questionnaire表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为外键与questionbank表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录该答案的用户,作为外键与user表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入信息编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importInformationID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入该用户的信息编号，作为外键与importInformation表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入信息编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importInformationID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入信息唯一标识，自动增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案唯一标识，自动增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入人信息编号，作为外键与user表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t>jurisdictionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限唯一标识，自动增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该角色所拥有的权限编号，作为外键与jurisdiction表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病对应表：用户工作所涉及的疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseParallelism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病对应序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionParallelism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionParallelismID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseParallelismID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病对应唯一标识，自动增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为外键与user表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为外键与caseCategory表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allotUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放单位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allotUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放用户序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allotUserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdrawUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdrawUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回单位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限对应表:角色所对应的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jurisdictionParallelism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jurisdictionParaID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限对应序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为外键与characterCategory表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为外键与jurisdiction表连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色类型 role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查时间(开始时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>allotID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>withdrawID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diseaseID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionnaireID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0表示未审核，1表示已审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷创建者的编号，作为外键与user表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caseCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷所调查的疾病类型，作为外键与caseCategory表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放信息的唯一标识，自动增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放份数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allotNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷所发放给的用户的编号，作为外键与user表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷所发放给的单位的编号，作为外键与unit表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为外键与allotInformation表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为外键与withdrawInformation表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收回序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收回份数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>withdrawID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>withdrawNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前收回的用户的编号，作为外键与user表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前收回的单位的编号，作为外键与unit表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionbank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>option1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>option2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>option3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>option4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>option5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>option6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0表示单选 1表示多选 2表示填空 3表示图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目对应信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>characterCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answerID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionnaire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为外键与questionnaire表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为外键与questionbank表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录该答案的用户,作为外键与user表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入信息编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>importInformationID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入该用户的信息编号，作为外键与importInformation表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入信息编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>importInformationID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入信息唯一标识，自动增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案唯一标识，自动增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>importDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入人信息编号，作为外键与user表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jurisdiction</t>
-  </si>
-  <si>
-    <t>jurisdictionID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限唯一标识，自动增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该角色所拥有的权限编号，作为外键与jurisdiction表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病对应表：用户工作所涉及的疾病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caseParallelism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>importInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病对应序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionParallelism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionParallelismID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caseParallelismID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病对应唯一标识，自动增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为外键与user表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为外键与caseCategory表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allotUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放单位信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allotUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放用户序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发放单位序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allotUserID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allotUnitID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>withdrawUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收回用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>withdrawUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收回单位信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限对应表:角色所对应的权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jurisdictionParallelism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jurisdictionParaID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限对应序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为外键与characterCategory表连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jurisdiction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为外键与jurisdiction表连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,6 +1159,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1205,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1224,6 +1266,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1556,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I148"/>
+  <dimension ref="B3:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1790,7 +1846,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -1814,31 +1870,31 @@
         <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -1853,7 +1909,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1865,7 +1921,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1903,10 +1959,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
@@ -1922,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -1943,10 +1999,10 @@
         <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -1964,18 +2020,18 @@
         <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2070,24 +2126,24 @@
         <v>51</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="B29" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="7" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2125,7 +2181,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>36</v>
@@ -2144,15 +2200,15 @@
         <v>45</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>49</v>
@@ -2170,18 +2226,18 @@
         <v>51</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
@@ -2194,7 +2250,7 @@
         <v>14</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
@@ -2209,7 +2265,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2221,7 +2277,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2259,37 +2315,37 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E40" s="2">
         <v>20</v>
@@ -2301,7 +2357,7 @@
         <v>13</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -2317,7 +2373,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2329,7 +2385,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2367,10 +2423,10 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>37</v>
@@ -2386,15 +2442,15 @@
         <v>13</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>37</v>
@@ -2404,18 +2460,18 @@
         <v>13</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>36</v>
@@ -2428,18 +2484,18 @@
         <v>13</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2451,7 +2507,7 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2469,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>5</v>
@@ -2489,10 +2545,10 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>42</v>
@@ -2508,15 +2564,15 @@
         <v>45</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>49</v>
@@ -2537,10 +2593,10 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>49</v>
@@ -2561,7 +2617,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2573,7 +2629,7 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -2611,101 +2667,101 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E60" s="2">
         <v>100</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I62" s="2"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2717,7 +2773,7 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2755,68 +2811,68 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>45</v>
@@ -2825,137 +2881,137 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I75" s="2"/>
     </row>
@@ -2964,1392 +3020,1462 @@
         <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="I76" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H77" s="2" t="s">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B80" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B81" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B82" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G82" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B79" s="6" t="s">
+      <c r="H82" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B83" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="I83" s="15"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B85" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B87" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B80" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B81" s="1" t="s">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B88" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B82" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B83" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B84" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B87" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B89" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>35</v>
+        <v>274</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>275</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="H90" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="G93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B93" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B94" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="9"/>
-    </row>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="95" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B96" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B97" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B97" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H98" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B101" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B100" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B101" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="9"/>
+      <c r="G101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101" s="2"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B103" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B104" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="13"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B105" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C105" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D105" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E105" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F105" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G105" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H105" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I105" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B103" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103" s="2" t="s">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B106" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B107" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2" t="s">
+      <c r="D107" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G107" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="I107" s="15"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B108" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="I108" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B109" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B104" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B105" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="I109" s="15"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B111" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B107" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B108" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="9"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B109" s="1" t="s">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B112" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B110" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B111" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B112" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E112" s="2">
-        <v>100</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B113" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E113" s="2">
-        <v>50</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I113" s="2"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E114" s="2">
-        <v>50</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I115" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="E116" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B117" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="E117" s="2">
         <v>50</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B118" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="E118" s="2">
         <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I118" s="2"/>
     </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" s="2">
+        <v>50</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I119" s="2"/>
+    </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B120" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
+      <c r="B120" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E120" s="2">
+        <v>50</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I120" s="2"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B121" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="9"/>
+      <c r="B121" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E121" s="2">
+        <v>50</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I121" s="2"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" s="2">
+        <v>50</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B124" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B125" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="9"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="I126" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B123" s="5" t="s">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B127" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H127" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D123" s="5" t="s">
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B128" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B129" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B132" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G123" s="5" t="s">
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B133" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H123" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B124" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B125" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B126" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B128" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B129" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="9"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B130" s="1" t="s">
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="9"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B134" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="I134" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B131" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B132" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B133" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B134" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B135" s="2" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E135" s="2">
-        <v>50</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E135" s="2"/>
       <c r="F135" s="2" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I135" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B136" s="2" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E136" s="2">
-        <v>50</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I136" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B137" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E137" s="2">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I137" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B138" s="2" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E138" s="2">
-        <v>50</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I138" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B139" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="E139" s="2">
         <v>50</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B140" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2">
         <v>50</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I140" s="2"/>
     </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B141" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E141" s="2">
+        <v>50</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B142" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E142" s="2">
+        <v>50</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I142" s="2"/>
+    </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B143" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
+      <c r="B143" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E143" s="2">
+        <v>50</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I143" s="2"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144" s="2">
+        <v>50</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B147" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B148" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="9"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B150" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="9"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B145" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B146" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C146" s="2" t="s">
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B151" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B152" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2" t="s">
+      <c r="E152" s="2"/>
+      <c r="F152" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G152" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B147" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C147" s="2" t="s">
+      <c r="I152" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" s="2"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B148" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B80:I80"/>
-    <mergeCell ref="B93:I93"/>
-    <mergeCell ref="B128:I128"/>
-    <mergeCell ref="B129:I129"/>
-    <mergeCell ref="B94:I94"/>
-    <mergeCell ref="B107:I107"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="B120:I120"/>
-    <mergeCell ref="B121:I121"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="B100:I100"/>
-    <mergeCell ref="B143:I143"/>
-    <mergeCell ref="B144:I144"/>
+    <mergeCell ref="B147:I147"/>
+    <mergeCell ref="B148:I148"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B3:I3"/>
@@ -4364,6 +4490,24 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="B133:I133"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="B112:I112"/>
+    <mergeCell ref="B124:I124"/>
+    <mergeCell ref="B125:I125"/>
+    <mergeCell ref="B104:I104"/>
+    <mergeCell ref="B103:I103"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B80:I80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
